--- a/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>7,08</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 14,13</t>
+          <t>4,99; 14,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,03</t>
+          <t>4,15; 10,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,48</t>
+          <t>5,08; 10,65</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,67</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,13</t>
+          <t>4,22; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 12,55</t>
+          <t>3,89; 13,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,79</t>
+          <t>4,41; 9,98</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>5,72</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,39</t>
+          <t>3,93; 10,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,6</t>
+          <t>2,93; 9,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,42</t>
+          <t>4,13; 9,39</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,62</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,85</t>
+          <t>5,3; 10,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,88</t>
+          <t>4,46; 9,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,32</t>
+          <t>5,17; 8,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 19,12</t>
+          <t>5,28; 19,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,92</t>
+          <t>3,16; 8,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 36,45</t>
+          <t>3,18; 31,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 14,19</t>
+          <t>5,05; 14,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,79</t>
+          <t>3,98; 7,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,59</t>
+          <t>3,56; 6,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,42</t>
+          <t>3,47; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,65</t>
+          <t>3,98; 9,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,72</t>
+          <t>5,24; 10,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,38</t>
+          <t>3,71; 6,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 16,63</t>
+          <t>4,13; 16,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,65</t>
+          <t>5,1; 11,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,5</t>
+          <t>1,35; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 9,72</t>
+          <t>3,98; 10,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 11,74</t>
+          <t>5,77; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,17</t>
+          <t>4,16; 11,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,08</t>
+          <t>1,78; 5,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,62</t>
+          <t>4,1; 8,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,04</t>
+          <t>5,23; 9,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,14</t>
+          <t>3,6; 11,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,55</t>
+          <t>2,04; 4,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,96</t>
+          <t>4,56; 8,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,89</t>
+          <t>6,1; 9,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,98</t>
+          <t>4,52; 10,06</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,22</t>
+          <t>3,15; 13,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,47</t>
+          <t>3,71; 11,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,9</t>
+          <t>4,36; 11,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,72</t>
+          <t>2,74; 9,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,82</t>
+          <t>2,76; 9,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,47</t>
+          <t>3,44; 10,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,05</t>
+          <t>2,39; 5,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,39</t>
+          <t>3,89; 8,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,32</t>
+          <t>4,95; 12,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,62</t>
+          <t>4,1; 7,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,17</t>
+          <t>5,69; 14,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,04</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,13</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,92</t>
+          <t>4,44; 6,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,08</t>
+          <t>4,93; 8,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,2</t>
+          <t>4,29; 9,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,7</t>
+          <t>4,4; 7,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,65</t>
+          <t>4,55; 6,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,92</t>
+          <t>5,71; 9,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,54</t>
+          <t>5,24; 8,65</t>
         </is>
       </c>
     </row>
